--- a/code/files/Table10.xlsx
+++ b/code/files/Table10.xlsx
@@ -355,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -368,7 +368,7 @@
     <col min="3" max="3" width="33.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -379,169 +379,170 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>200</v>
       </c>
       <c r="B2" s="1">
-        <v>1.6</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>200</v>
       </c>
       <c r="B3" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>200</v>
       </c>
       <c r="B4" s="1">
-        <v>6.3</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>200</v>
       </c>
       <c r="B5" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>200</v>
       </c>
       <c r="B6" s="1">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="C6" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>300</v>
       </c>
       <c r="B7" s="1">
-        <v>1.4</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>300</v>
       </c>
       <c r="B8" s="1">
-        <v>3.5</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>300</v>
       </c>
       <c r="B9" s="1">
-        <v>5.4</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>300</v>
       </c>
       <c r="B10" s="1">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="C10" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>300</v>
       </c>
       <c r="B11" s="1">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="C11" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>400</v>
       </c>
       <c r="B12" s="1">
-        <v>1.2</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>400</v>
       </c>
       <c r="B13" s="1">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>400</v>
       </c>
       <c r="B14" s="1">
-        <v>4.8</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>400</v>
       </c>
       <c r="B15" s="1">
-        <v>7.5</v>
+        <v>75</v>
       </c>
       <c r="C15" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>400</v>
       </c>
       <c r="B16" s="1">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="C16" s="1">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -549,10 +550,10 @@
         <v>480</v>
       </c>
       <c r="B17" s="1">
-        <v>1.1000000000000001</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1">
-        <v>1.6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -560,10 +561,10 @@
         <v>480</v>
       </c>
       <c r="B18" s="1">
-        <v>2.6</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -571,10 +572,10 @@
         <v>480</v>
       </c>
       <c r="B19" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1">
-        <v>6.3</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -582,10 +583,10 @@
         <v>480</v>
       </c>
       <c r="B20" s="1">
-        <v>6.6</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -593,10 +594,10 @@
         <v>480</v>
       </c>
       <c r="B21" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="C21" s="1">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -604,10 +605,10 @@
         <v>520</v>
       </c>
       <c r="B22" s="1">
-        <v>0.9</v>
+        <v>9</v>
       </c>
       <c r="C22" s="1">
-        <v>1.6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -615,10 +616,10 @@
         <v>520</v>
       </c>
       <c r="B23" s="1">
-        <v>2.2999999999999998</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -626,10 +627,10 @@
         <v>520</v>
       </c>
       <c r="B24" s="1">
-        <v>3.7</v>
+        <v>37</v>
       </c>
       <c r="C24" s="1">
-        <v>6.3</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -637,10 +638,10 @@
         <v>520</v>
       </c>
       <c r="B25" s="1">
-        <v>5.8</v>
+        <v>58</v>
       </c>
       <c r="C25" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -648,10 +649,10 @@
         <v>520</v>
       </c>
       <c r="B26" s="1">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="C26" s="1">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -659,10 +660,10 @@
         <v>560</v>
       </c>
       <c r="B27" s="1">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="C27" s="1">
-        <v>1.6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -670,10 +671,10 @@
         <v>560</v>
       </c>
       <c r="B28" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C28" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -681,10 +682,10 @@
         <v>560</v>
       </c>
       <c r="B29" s="1">
-        <v>3.2</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1">
-        <v>6.3</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -692,10 +693,10 @@
         <v>560</v>
       </c>
       <c r="B30" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C30" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -703,10 +704,10 @@
         <v>560</v>
       </c>
       <c r="B31" s="1">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="C31" s="1">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -714,10 +715,10 @@
         <v>590</v>
       </c>
       <c r="B32" s="1">
-        <v>0.7</v>
+        <v>7</v>
       </c>
       <c r="C32" s="1">
-        <v>1.6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -725,10 +726,10 @@
         <v>590</v>
       </c>
       <c r="B33" s="1">
-        <v>1.8</v>
+        <v>18</v>
       </c>
       <c r="C33" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -736,10 +737,10 @@
         <v>590</v>
       </c>
       <c r="B34" s="1">
-        <v>2.8</v>
+        <v>28</v>
       </c>
       <c r="C34" s="1">
-        <v>6.3</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -747,10 +748,10 @@
         <v>590</v>
       </c>
       <c r="B35" s="1">
-        <v>4.5</v>
+        <v>45</v>
       </c>
       <c r="C35" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -758,10 +759,10 @@
         <v>590</v>
       </c>
       <c r="B36" s="1">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="C36" s="1">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -769,10 +770,10 @@
         <v>610</v>
       </c>
       <c r="B37" s="1">
-        <v>0.62</v>
+        <v>6.2</v>
       </c>
       <c r="C37" s="1">
-        <v>1.6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -780,10 +781,10 @@
         <v>610</v>
       </c>
       <c r="B38" s="1">
-        <v>1.6</v>
+        <v>16</v>
       </c>
       <c r="C38" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -791,10 +792,10 @@
         <v>610</v>
       </c>
       <c r="B39" s="1">
-        <v>2.5</v>
+        <v>25</v>
       </c>
       <c r="C39" s="1">
-        <v>6.3</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -802,10 +803,10 @@
         <v>610</v>
       </c>
       <c r="B40" s="1">
-        <v>4.2</v>
+        <v>42</v>
       </c>
       <c r="C40" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -813,10 +814,10 @@
         <v>610</v>
       </c>
       <c r="B41" s="1">
-        <v>6.2</v>
+        <v>62</v>
       </c>
       <c r="C41" s="1">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -824,10 +825,10 @@
         <v>630</v>
       </c>
       <c r="B42" s="1">
-        <v>0.56999999999999995</v>
+        <v>5.6999999999999993</v>
       </c>
       <c r="C42" s="1">
-        <v>1.6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -835,10 +836,10 @@
         <v>630</v>
       </c>
       <c r="B43" s="1">
-        <v>1.4</v>
+        <v>14</v>
       </c>
       <c r="C43" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -846,10 +847,10 @@
         <v>630</v>
       </c>
       <c r="B44" s="1">
-        <v>2.2999999999999998</v>
+        <v>23</v>
       </c>
       <c r="C44" s="1">
-        <v>6.3</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -857,10 +858,10 @@
         <v>630</v>
       </c>
       <c r="B45" s="1">
-        <v>3.6</v>
+        <v>36</v>
       </c>
       <c r="C45" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -868,10 +869,10 @@
         <v>630</v>
       </c>
       <c r="B46" s="1">
-        <v>5.7</v>
+        <v>57</v>
       </c>
       <c r="C46" s="1">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -879,10 +880,10 @@
         <v>640</v>
       </c>
       <c r="B47" s="1">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
       <c r="C47" s="1">
-        <v>1.6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -890,10 +891,10 @@
         <v>640</v>
       </c>
       <c r="B48" s="1">
-        <v>1.3</v>
+        <v>13</v>
       </c>
       <c r="C48" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -901,10 +902,10 @@
         <v>640</v>
       </c>
       <c r="B49" s="1">
-        <v>2.1</v>
+        <v>21</v>
       </c>
       <c r="C49" s="1">
-        <v>6.3</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -912,10 +913,10 @@
         <v>640</v>
       </c>
       <c r="B50" s="1">
-        <v>3.3</v>
+        <v>33</v>
       </c>
       <c r="C50" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -923,10 +924,10 @@
         <v>640</v>
       </c>
       <c r="B51" s="1">
-        <v>5.2</v>
+        <v>52</v>
       </c>
       <c r="C51" s="1">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -934,10 +935,10 @@
         <v>660</v>
       </c>
       <c r="B52" s="1">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="C52" s="1">
-        <v>1.6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -945,10 +946,10 @@
         <v>660</v>
       </c>
       <c r="B53" s="1">
-        <v>1.2</v>
+        <v>12</v>
       </c>
       <c r="C53" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -956,10 +957,10 @@
         <v>660</v>
       </c>
       <c r="B54" s="1">
-        <v>1.9</v>
+        <v>19</v>
       </c>
       <c r="C54" s="1">
-        <v>6.3</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -967,10 +968,10 @@
         <v>660</v>
       </c>
       <c r="B55" s="1">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C55" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -978,10 +979,10 @@
         <v>660</v>
       </c>
       <c r="B56" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C56" s="1">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -989,10 +990,10 @@
         <v>675</v>
       </c>
       <c r="B57" s="1">
-        <v>0.43</v>
+        <v>4.3</v>
       </c>
       <c r="C57" s="1">
-        <v>1.6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1000,10 +1001,10 @@
         <v>675</v>
       </c>
       <c r="B58" s="1">
-        <v>1.04</v>
+        <v>10.4</v>
       </c>
       <c r="C58" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1011,10 +1012,10 @@
         <v>675</v>
       </c>
       <c r="B59" s="1">
-        <v>1.7</v>
+        <v>17</v>
       </c>
       <c r="C59" s="1">
-        <v>6.3</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1022,10 +1023,10 @@
         <v>675</v>
       </c>
       <c r="B60" s="1">
-        <v>2.7</v>
+        <v>27</v>
       </c>
       <c r="C60" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1033,10 +1034,10 @@
         <v>675</v>
       </c>
       <c r="B61" s="1">
-        <v>4.3</v>
+        <v>43</v>
       </c>
       <c r="C61" s="1">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1044,10 +1045,10 @@
         <v>690</v>
       </c>
       <c r="B62" s="1">
-        <v>0.37</v>
+        <v>3.7</v>
       </c>
       <c r="C62" s="1">
-        <v>1.6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1055,10 +1056,10 @@
         <v>690</v>
       </c>
       <c r="B63" s="1">
-        <v>0.9</v>
+        <v>9</v>
       </c>
       <c r="C63" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1066,10 +1067,10 @@
         <v>690</v>
       </c>
       <c r="B64" s="1">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="C64" s="1">
-        <v>6.3</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1077,10 +1078,10 @@
         <v>690</v>
       </c>
       <c r="B65" s="1">
-        <v>2.2999999999999998</v>
+        <v>23</v>
       </c>
       <c r="C65" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1088,10 +1089,10 @@
         <v>690</v>
       </c>
       <c r="B66" s="1">
-        <v>3.7</v>
+        <v>37</v>
       </c>
       <c r="C66" s="1">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1099,10 +1100,10 @@
         <v>700</v>
       </c>
       <c r="B67" s="1">
-        <v>0.32</v>
+        <v>3.2</v>
       </c>
       <c r="C67" s="1">
-        <v>1.6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1110,10 +1111,10 @@
         <v>700</v>
       </c>
       <c r="B68" s="1">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="C68" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1121,10 +1122,10 @@
         <v>700</v>
       </c>
       <c r="B69" s="1">
-        <v>1.3</v>
+        <v>13</v>
       </c>
       <c r="C69" s="1">
-        <v>6.3</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1132,10 +1133,10 @@
         <v>700</v>
       </c>
       <c r="B70" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C70" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1143,10 +1144,10 @@
         <v>700</v>
       </c>
       <c r="B71" s="1">
-        <v>3.2</v>
+        <v>32</v>
       </c>
       <c r="C71" s="1">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
